--- a/data/trans_orig/IP09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17CE6192-1A9E-4F72-85B0-0F7640A24A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D74B515-B02E-4356-A96C-9626FBF28BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0D8ECD58-3F31-492C-835D-0C1F3C1DE397}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{90A67BA6-6487-4CC5-A0D2-7743106B8387}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,108 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>66,84%</t>
   </si>
   <si>
@@ -101,9 +197,6 @@
     <t>80,27%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>33,16%</t>
   </si>
   <si>
@@ -131,64 +224,61 @@
     <t>42,57%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,96 +338,6 @@
     <t>35,35%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
     <t>71,2%</t>
   </si>
   <si>
@@ -395,6 +395,87 @@
     <t>Menores según padecer actualmente dolencia o enfermedad continuada en 2012 (Tasa respuesta: 12,67%)</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
     <t>71,59%</t>
   </si>
   <si>
@@ -449,58 +530,58 @@
     <t>43,13%</t>
   </si>
   <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
   </si>
   <si>
     <t>69,97%</t>
@@ -557,87 +638,6 @@
     <t>39,45%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
     <t>66,56%</t>
   </si>
   <si>
@@ -689,6 +689,72 @@
     <t>Menores según padecer actualmente dolencia o enfermedad continuada en 2015 (Tasa respuesta: 6,87%)</t>
   </si>
   <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
     <t>60,36%</t>
   </si>
   <si>
@@ -743,58 +809,58 @@
     <t>53,62%</t>
   </si>
   <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
   </si>
   <si>
     <t>43,61%</t>
@@ -851,72 +917,6 @@
     <t>69,54%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
     <t>53,79%</t>
   </si>
   <si>
@@ -974,6 +974,90 @@
     <t>Menores según padecer actualmente dolencia o enfermedad continuada en 2023 (Tasa respuesta: 10,83%)</t>
   </si>
   <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
     <t>55,92%</t>
   </si>
   <si>
@@ -1028,58 +1112,58 @@
     <t>56,78%</t>
   </si>
   <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
   </si>
   <si>
     <t>73,8%</t>
@@ -1122,90 +1206,6 @@
   </si>
   <si>
     <t>39,91%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
   </si>
   <si>
     <t>68,15%</t>
@@ -1651,7 +1651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD92A90-3E77-4696-BD3C-41B51A225F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C06911-FE62-4778-999B-EE64C9835D2A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1769,10 +1769,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>18956</v>
+        <v>1426</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1784,85 +1784,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>11359</v>
+        <v>1525</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2951</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>47</v>
-      </c>
-      <c r="N4" s="7">
-        <v>30315</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>832</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>929</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1761</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7">
-        <v>9403</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4337</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>21</v>
-      </c>
-      <c r="N5" s="7">
-        <v>13740</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,54 +1871,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>28359</v>
+        <v>2258</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>15696</v>
+        <v>2454</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>44055</v>
+        <v>4712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1930,13 +1930,13 @@
         <v>12112</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -1945,13 +1945,13 @@
         <v>5381</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -1960,19 +1960,19 @@
         <v>17493</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -1981,13 +1981,13 @@
         <v>3167</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1996,13 +1996,13 @@
         <v>1931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -2011,13 +2011,13 @@
         <v>5098</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,13 +2032,13 @@
         <v>15279</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -2047,13 +2047,13 @@
         <v>7312</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -2062,117 +2062,117 @@
         <v>22591</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>14229</v>
+        <v>18956</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="7">
+        <v>19</v>
+      </c>
+      <c r="I10" s="7">
+        <v>11359</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="7">
+        <v>47</v>
+      </c>
+      <c r="N10" s="7">
+        <v>30315</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="7">
-        <v>27</v>
-      </c>
-      <c r="I10" s="7">
-        <v>20439</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>48</v>
-      </c>
-      <c r="N10" s="7">
-        <v>34668</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>7986</v>
+        <v>9403</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="7">
+        <v>7</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4337</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="7">
+        <v>21</v>
+      </c>
+      <c r="N11" s="7">
+        <v>13740</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2474</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7">
-        <v>10459</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,150 +2181,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>22215</v>
+        <v>28359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>22913</v>
+        <v>15696</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N12" s="7">
-        <v>45127</v>
+        <v>44055</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>1426</v>
+        <v>12713</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="7">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4739</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="7">
+        <v>27</v>
+      </c>
+      <c r="N13" s="7">
+        <v>17453</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1525</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2951</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>832</v>
+        <v>2653</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3130</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>929</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5783</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1761</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>79</v>
@@ -2336,49 +2336,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D15" s="7">
-        <v>2258</v>
+        <v>15366</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I15" s="7">
-        <v>2454</v>
+        <v>7869</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="N15" s="7">
-        <v>4712</v>
+        <v>23236</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,10 +2389,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>12713</v>
+        <v>14229</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>81</v>
@@ -2404,10 +2404,10 @@
         <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>4739</v>
+        <v>20439</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>84</v>
@@ -2419,10 +2419,10 @@
         <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N16" s="7">
-        <v>17453</v>
+        <v>34668</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>87</v>
@@ -2437,13 +2437,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>2653</v>
+        <v>7986</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>90</v>
@@ -2455,10 +2455,10 @@
         <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>3130</v>
+        <v>2474</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>93</v>
@@ -2470,10 +2470,10 @@
         <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N17" s="7">
-        <v>5783</v>
+        <v>10459</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>96</v>
@@ -2491,49 +2491,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>15366</v>
+        <v>22215</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="7">
         <v>30</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>13</v>
-      </c>
       <c r="I18" s="7">
-        <v>7869</v>
+        <v>22913</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N18" s="7">
-        <v>23236</v>
+        <v>45127</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,7 +2592,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>36</v>
@@ -2652,13 +2652,13 @@
         <v>83478</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>83</v>
@@ -2667,13 +2667,13 @@
         <v>56243</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>207</v>
@@ -2682,13 +2682,13 @@
         <v>139721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524DF48D-89BB-4867-8FC5-74D2311E0A91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2FCFBE-071B-4FF6-8122-4E95F572E76B}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2827,100 +2827,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>22494</v>
+        <v>4683</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1849</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>7</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6532</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="7">
-        <v>28</v>
-      </c>
-      <c r="I4" s="7">
-        <v>17718</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M4" s="7">
-        <v>61</v>
-      </c>
-      <c r="N4" s="7">
-        <v>40212</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
-        <v>8928</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>10088</v>
+        <v>896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>19016</v>
+        <v>896</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,54 +2929,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>31422</v>
+        <v>4683</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>27806</v>
+        <v>2745</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>59228</v>
+        <v>7428</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2988,13 +2988,13 @@
         <v>6443</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3003,13 +3003,13 @@
         <v>6595</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3018,19 +3018,19 @@
         <v>13038</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>9</v>
@@ -3039,13 +3039,13 @@
         <v>6901</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3054,13 +3054,13 @@
         <v>4725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -3069,13 +3069,13 @@
         <v>11627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3090,13 @@
         <v>13344</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -3105,13 +3105,13 @@
         <v>11320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -3120,117 +3120,117 @@
         <v>24665</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>19366</v>
+        <v>22494</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>16072</v>
+        <v>17718</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>35439</v>
+        <v>40212</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>8311</v>
+        <v>8928</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I11" s="7">
-        <v>5056</v>
+        <v>10088</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N11" s="7">
-        <v>13366</v>
+        <v>19016</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,150 +3239,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7">
-        <v>27677</v>
+        <v>31422</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7">
-        <v>21128</v>
+        <v>27806</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="N12" s="7">
-        <v>48805</v>
+        <v>59228</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>4683</v>
+        <v>15181</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>1849</v>
+        <v>12237</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>6532</v>
+        <v>27419</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>10112</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="7">
+        <v>12</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7633</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>896</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>27</v>
+      </c>
+      <c r="N14" s="7">
+        <v>17745</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>896</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>180</v>
@@ -3394,49 +3394,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7">
-        <v>4683</v>
+        <v>25293</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>2745</v>
+        <v>19870</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="N15" s="7">
-        <v>7428</v>
+        <v>45164</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,10 +3447,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>15181</v>
+        <v>19366</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>181</v>
@@ -3462,10 +3462,10 @@
         <v>183</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>12237</v>
+        <v>16072</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>184</v>
@@ -3477,10 +3477,10 @@
         <v>186</v>
       </c>
       <c r="M16" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N16" s="7">
-        <v>27419</v>
+        <v>35439</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>187</v>
@@ -3495,13 +3495,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>10112</v>
+        <v>8311</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>190</v>
@@ -3513,10 +3513,10 @@
         <v>192</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>7633</v>
+        <v>5056</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>193</v>
@@ -3528,10 +3528,10 @@
         <v>195</v>
       </c>
       <c r="M17" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N17" s="7">
-        <v>17745</v>
+        <v>13366</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>196</v>
@@ -3549,49 +3549,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7">
-        <v>25293</v>
+        <v>27677</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I18" s="7">
-        <v>19870</v>
+        <v>21128</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N18" s="7">
-        <v>45164</v>
+        <v>48805</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,7 +3650,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>48</v>
@@ -3710,13 +3710,13 @@
         <v>102419</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>122</v>
@@ -3725,13 +3725,13 @@
         <v>82869</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>266</v>
@@ -3740,13 +3740,13 @@
         <v>185289</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3767,7 +3767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3B2D78-B24F-4880-8BB5-5FEC25328E78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB34CAB-AAEB-4290-9018-C0C40148C4F1}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3885,100 +3885,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>12096</v>
+        <v>1034</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2232</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3267</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" s="7">
-        <v>19</v>
-      </c>
-      <c r="I4" s="7">
-        <v>11817</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M4" s="7">
-        <v>36</v>
-      </c>
-      <c r="N4" s="7">
-        <v>23913</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>7945</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="7">
-        <v>7779</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="M5" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>15723</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,54 +3987,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>20041</v>
+        <v>1034</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>19596</v>
+        <v>2232</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>39636</v>
+        <v>3267</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4046,13 +4046,13 @@
         <v>4289</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4061,13 +4061,13 @@
         <v>2682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4076,19 +4076,19 @@
         <v>6972</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -4097,13 +4097,13 @@
         <v>4386</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4112,13 +4112,13 @@
         <v>3254</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -4127,13 +4127,13 @@
         <v>7640</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4148,13 @@
         <v>8675</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4163,13 +4163,13 @@
         <v>5936</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -4178,117 +4178,117 @@
         <v>14612</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>5508</v>
+        <v>12096</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>5191</v>
+        <v>11817</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>10699</v>
+        <v>23913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>7121</v>
+        <v>7945</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>5159</v>
+        <v>7779</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N11" s="7">
-        <v>12279</v>
+        <v>15723</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,150 +4297,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7">
-        <v>12629</v>
+        <v>20041</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I12" s="7">
-        <v>10350</v>
+        <v>19596</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N12" s="7">
-        <v>22978</v>
+        <v>39636</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>1034</v>
+        <v>4745</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>2232</v>
+        <v>6122</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>3267</v>
+        <v>10868</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>4323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2886</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M14" s="7">
+        <v>12</v>
+      </c>
+      <c r="N14" s="7">
+        <v>7209</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>273</v>
@@ -4452,49 +4452,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>1034</v>
+        <v>9068</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I15" s="7">
-        <v>2232</v>
+        <v>9008</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N15" s="7">
-        <v>3267</v>
+        <v>18077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,10 +4505,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>4745</v>
+        <v>5508</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>274</v>
@@ -4520,10 +4520,10 @@
         <v>276</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>6122</v>
+        <v>5191</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>277</v>
@@ -4535,10 +4535,10 @@
         <v>279</v>
       </c>
       <c r="M16" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>10868</v>
+        <v>10699</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>280</v>
@@ -4553,13 +4553,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>4323</v>
+        <v>7121</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>283</v>
@@ -4571,10 +4571,10 @@
         <v>285</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>2886</v>
+        <v>5159</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>286</v>
@@ -4586,10 +4586,10 @@
         <v>288</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N17" s="7">
-        <v>7209</v>
+        <v>12279</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>289</v>
@@ -4607,49 +4607,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>9068</v>
+        <v>12629</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>9008</v>
+        <v>10350</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N18" s="7">
-        <v>18077</v>
+        <v>22978</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,7 +4708,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>34</v>
@@ -4768,13 +4768,13 @@
         <v>51447</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>72</v>
@@ -4783,13 +4783,13 @@
         <v>47123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>146</v>
@@ -4798,13 +4798,13 @@
         <v>98570</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4825,7 +4825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5EFDAF-7823-432C-84C5-684B781668D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEDB1D9-E17E-47B3-849A-02E403E9C95F}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,10 +4943,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>14164</v>
+        <v>1867</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>311</v>
@@ -4955,88 +4955,88 @@
         <v>312</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1468</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H4" s="7">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7">
-        <v>10795</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="7">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3335</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M4" s="7">
-        <v>39</v>
-      </c>
-      <c r="N4" s="7">
-        <v>24959</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>11164</v>
+        <v>636</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>636</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H5" s="7">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7661</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M5" s="7">
-        <v>25</v>
-      </c>
-      <c r="N5" s="7">
-        <v>18825</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,54 +5045,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>25328</v>
+        <v>2503</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>18456</v>
+        <v>1468</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>43784</v>
+        <v>3971</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5104,13 +5104,13 @@
         <v>12575</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5119,13 +5119,13 @@
         <v>6357</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5134,19 +5134,19 @@
         <v>18932</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -5155,13 +5155,13 @@
         <v>3680</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -5170,13 +5170,13 @@
         <v>4152</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -5185,13 +5185,13 @@
         <v>7832</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5206,13 @@
         <v>16255</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -5221,13 +5221,13 @@
         <v>10509</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -5236,117 +5236,117 @@
         <v>26764</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>19439</v>
+        <v>14164</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>11141</v>
+        <v>10795</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>30580</v>
+        <v>24959</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7">
+        <v>11164</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H11" s="7">
         <v>10</v>
       </c>
-      <c r="D11" s="7">
-        <v>6900</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>7661</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="M11" s="7">
+        <v>25</v>
+      </c>
+      <c r="N11" s="7">
+        <v>18825</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4872</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="M11" s="7">
-        <v>17</v>
-      </c>
-      <c r="N11" s="7">
-        <v>11772</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,153 +5355,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>26339</v>
+        <v>25328</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>16013</v>
+        <v>18456</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N12" s="7">
-        <v>42352</v>
+        <v>43784</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>1867</v>
+        <v>12987</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H13" s="7">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9286</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1468</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>33</v>
+      </c>
+      <c r="N13" s="7">
+        <v>22274</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>6</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3335</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>636</v>
+        <v>6139</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>4359</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>636</v>
+        <v>10497</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,49 +5510,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7">
-        <v>2503</v>
+        <v>19126</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I15" s="7">
-        <v>1468</v>
+        <v>13645</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="N15" s="7">
-        <v>3971</v>
+        <v>32771</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,97 +5563,97 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>12987</v>
+        <v>19439</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>9286</v>
+        <v>11141</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N16" s="7">
-        <v>22274</v>
+        <v>30580</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6900</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H17" s="7">
         <v>7</v>
       </c>
-      <c r="D17" s="7">
-        <v>6139</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
       <c r="I17" s="7">
-        <v>4359</v>
+        <v>4872</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N17" s="7">
-        <v>10497</v>
+        <v>11772</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>386</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>388</v>
@@ -5665,49 +5665,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7">
-        <v>19126</v>
+        <v>26339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I18" s="7">
-        <v>13645</v>
+        <v>16013</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N18" s="7">
-        <v>32771</v>
+        <v>42352</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,7 +5766,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>40</v>
@@ -5826,13 +5826,13 @@
         <v>89551</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>88</v>
@@ -5841,13 +5841,13 @@
         <v>60091</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>208</v>
@@ -5856,13 +5856,13 @@
         <v>149642</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D74B515-B02E-4356-A96C-9626FBF28BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A729CAEB-985F-44C4-9F66-3CCAED66EFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{90A67BA6-6487-4CC5-A0D2-7743106B8387}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2815C936-0C82-4E17-A8F1-D6E363585A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="407">
-  <si>
-    <t>Menores según padecer actualmente dolencia o enfermedad continuada en 2007 (Tasa respuesta: 9,84%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="404">
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2007 (Tasa respuesta: 9,84%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,40 +71,40 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>63,15%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>62,15%</t>
   </si>
   <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>12,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -113,286 +113,304 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
     <t>79,27%</t>
   </si>
   <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>73,59%</t>
   </si>
   <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>77,43%</t>
   </si>
   <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
     <t>66,84%</t>
   </si>
   <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
   </si>
   <si>
     <t>72,37%</t>
   </si>
   <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
     <t>82,73%</t>
   </si>
   <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>60,23%</t>
   </si>
   <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
   </si>
   <si>
     <t>75,11%</t>
   </si>
   <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
     <t>64,05%</t>
   </si>
   <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
   </si>
   <si>
     <t>89,2%</t>
   </si>
   <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
   <si>
     <t>76,82%</t>
   </si>
   <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
   </si>
   <si>
     <t>71,2%</t>
   </si>
   <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
   </si>
   <si>
     <t>77,24%</t>
   </si>
   <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>73,63%</t>
   </si>
   <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>Menores según padecer actualmente dolencia o enfermedad continuada en 2012 (Tasa respuesta: 12,67%)</t>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2012 (Tasa respuesta: 12,67%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -404,862 +422,835 @@
     <t>87,94%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
   </si>
   <si>
     <t>58,26%</t>
   </si>
   <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
   </si>
   <si>
     <t>52,86%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>63,72%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
+    <t>76,74%</t>
   </si>
   <si>
     <t>67,89%</t>
   </si>
   <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
   </si>
   <si>
     <t>60,02%</t>
   </si>
   <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
   </si>
   <si>
     <t>61,59%</t>
   </si>
   <si>
-    <t>42,85%</t>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2015 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2023 (Tasa respuesta: 10,83%)</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
   </si>
   <si>
     <t>77,78%</t>
   </si>
   <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>Menores según padecer actualmente dolencia o enfermedad continuada en 2015 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>Menores según padecer actualmente dolencia o enfermedad continuada en 2023 (Tasa respuesta: 10,83%)</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
   </si>
   <si>
     <t>66,88%</t>
   </si>
   <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1261,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1366,39 +1357,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1450,7 +1441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1561,13 +1552,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1576,6 +1560,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1640,19 +1631,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C06911-FE62-4778-999B-EE64C9835D2A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7FD7B7-63A3-4C95-B18D-4129F3BF0EE0}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1769,10 +1780,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1426</v>
+        <v>832</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1784,10 +1795,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1525</v>
+        <v>929</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1799,19 +1810,19 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>2951</v>
+        <v>1761</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,10 +1831,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>832</v>
+        <v>1426</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>18</v>
@@ -1835,10 +1846,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>929</v>
+        <v>1525</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
@@ -1850,19 +1861,19 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>1761</v>
+        <v>2951</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,10 +1935,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>12112</v>
+        <v>3167</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>24</v>
@@ -1939,10 +1950,10 @@
         <v>26</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>5381</v>
+        <v>1931</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>27</v>
@@ -1954,10 +1965,10 @@
         <v>29</v>
       </c>
       <c r="M7" s="7">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>17493</v>
+        <v>5098</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>30</v>
@@ -1975,10 +1986,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>3167</v>
+        <v>12112</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>33</v>
@@ -1990,10 +2001,10 @@
         <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>1931</v>
+        <v>5381</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>36</v>
@@ -2005,10 +2016,10 @@
         <v>38</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N8" s="7">
-        <v>5098</v>
+        <v>17493</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>39</v>
@@ -2079,10 +2090,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>18956</v>
+        <v>9403</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>43</v>
@@ -2094,10 +2105,10 @@
         <v>45</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>11359</v>
+        <v>4337</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>46</v>
@@ -2109,10 +2120,10 @@
         <v>48</v>
       </c>
       <c r="M10" s="7">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>30315</v>
+        <v>13740</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>49</v>
@@ -2130,10 +2141,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>9403</v>
+        <v>18956</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>52</v>
@@ -2145,10 +2156,10 @@
         <v>54</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>4337</v>
+        <v>11359</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>55</v>
@@ -2160,10 +2171,10 @@
         <v>57</v>
       </c>
       <c r="M11" s="7">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N11" s="7">
-        <v>13740</v>
+        <v>30315</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>58</v>
@@ -2234,10 +2245,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>12713</v>
+        <v>2653</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>62</v>
@@ -2249,10 +2260,10 @@
         <v>64</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>4739</v>
+        <v>3130</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>65</v>
@@ -2264,10 +2275,10 @@
         <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>17453</v>
+        <v>5783</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>68</v>
@@ -2285,10 +2296,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>2653</v>
+        <v>12713</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>71</v>
@@ -2300,10 +2311,10 @@
         <v>73</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>3130</v>
+        <v>4739</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>74</v>
@@ -2315,10 +2326,10 @@
         <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="N14" s="7">
-        <v>5783</v>
+        <v>17453</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>77</v>
@@ -2389,10 +2400,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>14229</v>
+        <v>7986</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>81</v>
@@ -2404,10 +2415,10 @@
         <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>20439</v>
+        <v>2474</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>84</v>
@@ -2419,10 +2430,10 @@
         <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>34668</v>
+        <v>10459</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>87</v>
@@ -2440,10 +2451,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7">
-        <v>7986</v>
+        <v>14229</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>90</v>
@@ -2455,10 +2466,10 @@
         <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I17" s="7">
-        <v>2474</v>
+        <v>20439</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>93</v>
@@ -2470,10 +2481,10 @@
         <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="N17" s="7">
-        <v>10459</v>
+        <v>34668</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>96</v>
@@ -2544,10 +2555,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>59436</v>
+        <v>24042</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>99</v>
@@ -2559,10 +2570,10 @@
         <v>101</v>
       </c>
       <c r="H19" s="7">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>43443</v>
+        <v>12800</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>102</v>
@@ -2574,10 +2585,10 @@
         <v>104</v>
       </c>
       <c r="M19" s="7">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="N19" s="7">
-        <v>102879</v>
+        <v>36842</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>105</v>
@@ -2595,10 +2606,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="D20" s="7">
-        <v>24042</v>
+        <v>59436</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>108</v>
@@ -2610,10 +2621,10 @@
         <v>110</v>
       </c>
       <c r="H20" s="7">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="I20" s="7">
-        <v>12800</v>
+        <v>43443</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>111</v>
@@ -2625,10 +2636,10 @@
         <v>113</v>
       </c>
       <c r="M20" s="7">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="N20" s="7">
-        <v>36842</v>
+        <v>102879</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>114</v>
@@ -2689,6 +2700,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2709,8 +2725,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2FCFBE-071B-4FF6-8122-4E95F572E76B}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C211F72A-4DD8-4DB3-ACCC-1CCB0272EDA2}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2726,7 +2742,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2827,28 +2843,28 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4683</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1849</v>
+        <v>896</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -2857,19 +2873,19 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>6532</v>
+        <v>896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,28 +2894,28 @@
         <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4683</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>896</v>
+        <v>1849</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -2908,19 +2924,19 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>896</v>
+        <v>6532</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,46 +3001,46 @@
         <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>6443</v>
+        <v>6901</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>6595</v>
+        <v>4725</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>13038</v>
+        <v>11627</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,46 +3052,46 @@
         <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>6901</v>
+        <v>6443</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>4725</v>
+        <v>6595</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>11627</v>
+        <v>13038</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,40 +3153,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>22494</v>
+        <v>8928</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10088</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="7">
         <v>28</v>
       </c>
-      <c r="I10" s="7">
-        <v>17718</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M10" s="7">
-        <v>61</v>
-      </c>
       <c r="N10" s="7">
-        <v>40212</v>
+        <v>19016</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>151</v>
@@ -3188,10 +3204,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>8928</v>
+        <v>22494</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>154</v>
@@ -3203,34 +3219,34 @@
         <v>156</v>
       </c>
       <c r="H11" s="7">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>10088</v>
+        <v>17718</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>61</v>
+      </c>
+      <c r="N11" s="7">
+        <v>40212</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="M11" s="7">
-        <v>28</v>
-      </c>
-      <c r="N11" s="7">
-        <v>19016</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,49 +3308,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>15181</v>
+        <v>10112</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <v>7633</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12237</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>27</v>
+      </c>
+      <c r="N13" s="7">
+        <v>17745</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="M13" s="7">
-        <v>43</v>
-      </c>
-      <c r="N13" s="7">
-        <v>27419</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,49 +3359,49 @@
         <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>10112</v>
+        <v>15181</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7">
+        <v>12237</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H14" s="7">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>7633</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>43</v>
+      </c>
+      <c r="N14" s="7">
+        <v>27419</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M14" s="7">
-        <v>27</v>
-      </c>
-      <c r="N14" s="7">
-        <v>17745</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,49 +3463,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>19366</v>
+        <v>8311</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5056</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="7">
-        <v>22</v>
-      </c>
-      <c r="I16" s="7">
-        <v>16072</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>19</v>
+      </c>
+      <c r="N16" s="7">
+        <v>13366</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M16" s="7">
-        <v>47</v>
-      </c>
-      <c r="N16" s="7">
-        <v>35439</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,49 +3514,49 @@
         <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>8311</v>
+        <v>19366</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>22</v>
+      </c>
+      <c r="I17" s="7">
+        <v>16072</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H17" s="7">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5056</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>47</v>
+      </c>
+      <c r="N17" s="7">
+        <v>35439</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="M17" s="7">
-        <v>19</v>
-      </c>
-      <c r="N17" s="7">
-        <v>13366</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,49 +3618,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>68167</v>
+        <v>34252</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" s="7">
+        <v>42</v>
+      </c>
+      <c r="I19" s="7">
+        <v>28397</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H19" s="7">
-        <v>80</v>
-      </c>
-      <c r="I19" s="7">
-        <v>54472</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>201</v>
       </c>
       <c r="M19" s="7">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="N19" s="7">
-        <v>122640</v>
+        <v>62649</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,49 +3669,49 @@
         <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D20" s="7">
-        <v>34252</v>
+        <v>68167</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>80</v>
+      </c>
+      <c r="I20" s="7">
+        <v>54472</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H20" s="7">
-        <v>42</v>
-      </c>
-      <c r="I20" s="7">
-        <v>28397</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>176</v>
+      </c>
+      <c r="N20" s="7">
+        <v>122640</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="M20" s="7">
-        <v>90</v>
-      </c>
-      <c r="N20" s="7">
-        <v>62649</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,6 +3763,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3767,8 +3788,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB34CAB-AAEB-4290-9018-C0C40148C4F1}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5085EBB4-70A4-4F07-97BF-2D3677A0184B}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3784,7 +3805,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3885,49 +3906,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1034</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2232</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="7">
-        <v>4</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3267</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,49 +3957,49 @@
         <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2232</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3267</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,46 +4064,46 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>4289</v>
+        <v>4386</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3254</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2682</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>11</v>
+      </c>
+      <c r="N7" s="7">
+        <v>7640</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="M7" s="7">
-        <v>10</v>
-      </c>
-      <c r="N7" s="7">
-        <v>6972</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,46 +4115,46 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>4386</v>
+        <v>4289</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2682</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3254</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" s="7">
+        <v>6972</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="M8" s="7">
-        <v>11</v>
-      </c>
-      <c r="N8" s="7">
-        <v>7640</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,49 +4216,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>12096</v>
+        <v>7945</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="7">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7779</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H10" s="7">
-        <v>19</v>
-      </c>
-      <c r="I10" s="7">
-        <v>11817</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>23</v>
+      </c>
+      <c r="N10" s="7">
+        <v>15723</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="M10" s="7">
-        <v>36</v>
-      </c>
-      <c r="N10" s="7">
-        <v>23913</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,49 +4267,49 @@
         <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>7945</v>
+        <v>12096</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H11" s="7">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7">
+        <v>11817</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7779</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>36</v>
+      </c>
+      <c r="N11" s="7">
+        <v>23913</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="M11" s="7">
-        <v>23</v>
-      </c>
-      <c r="N11" s="7">
-        <v>15723</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,46 +4374,46 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>4745</v>
+        <v>4323</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2886</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6122</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>12</v>
+      </c>
+      <c r="N13" s="7">
+        <v>7209</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M13" s="7">
-        <v>17</v>
-      </c>
-      <c r="N13" s="7">
-        <v>10868</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,46 +4425,46 @@
         <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>4323</v>
+        <v>4745</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6122</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>17</v>
+      </c>
+      <c r="N14" s="7">
+        <v>10868</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2886</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="M14" s="7">
-        <v>12</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7209</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,49 +4526,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7121</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H16" s="7">
         <v>8</v>
       </c>
-      <c r="D16" s="7">
-        <v>5508</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>5159</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>18</v>
+      </c>
+      <c r="N16" s="7">
+        <v>12279</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5191</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M16" s="7">
-        <v>15</v>
-      </c>
-      <c r="N16" s="7">
-        <v>10699</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,49 +4577,49 @@
         <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>7121</v>
+        <v>5508</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5191</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>15</v>
+      </c>
+      <c r="N17" s="7">
+        <v>10699</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H17" s="7">
-        <v>8</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5159</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="M17" s="7">
-        <v>18</v>
-      </c>
-      <c r="N17" s="7">
-        <v>12279</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,49 +4681,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7">
-        <v>27672</v>
+        <v>23775</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H19" s="7">
+        <v>30</v>
+      </c>
+      <c r="I19" s="7">
+        <v>19077</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>64</v>
+      </c>
+      <c r="N19" s="7">
+        <v>42852</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="H19" s="7">
-        <v>42</v>
-      </c>
-      <c r="I19" s="7">
-        <v>28046</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M19" s="7">
-        <v>82</v>
-      </c>
-      <c r="N19" s="7">
-        <v>55718</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,49 +4732,49 @@
         <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7">
-        <v>23775</v>
+        <v>27672</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H20" s="7">
+        <v>42</v>
+      </c>
+      <c r="I20" s="7">
+        <v>28046</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M20" s="7">
+        <v>82</v>
+      </c>
+      <c r="N20" s="7">
+        <v>55718</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H20" s="7">
-        <v>30</v>
-      </c>
-      <c r="I20" s="7">
-        <v>19077</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M20" s="7">
-        <v>64</v>
-      </c>
-      <c r="N20" s="7">
-        <v>42852</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,6 +4826,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4825,8 +4851,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEDB1D9-E17E-47B3-849A-02E403E9C95F}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAD1AC1-6EDD-48AE-A45B-38A481D603C8}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4842,7 +4868,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4943,49 +4969,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1867</v>
+        <v>636</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1468</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>119</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>3335</v>
+        <v>636</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,49 +5020,49 @@
         <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>636</v>
+        <v>1867</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>317</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1468</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>122</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>318</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>636</v>
+        <v>3335</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,49 +5124,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>12575</v>
+        <v>3680</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4152</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M7" s="7">
+        <v>13</v>
+      </c>
+      <c r="N7" s="7">
+        <v>7832</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6357</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M7" s="7">
-        <v>19</v>
-      </c>
-      <c r="N7" s="7">
-        <v>18932</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,49 +5175,49 @@
         <v>17</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>3680</v>
+        <v>12575</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6357</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M8" s="7">
+        <v>19</v>
+      </c>
+      <c r="N8" s="7">
+        <v>18932</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H8" s="7">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4152</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="M8" s="7">
-        <v>13</v>
-      </c>
-      <c r="N8" s="7">
-        <v>7832</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,49 +5279,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>14164</v>
+        <v>11164</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7661</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="M10" s="7">
+        <v>25</v>
+      </c>
+      <c r="N10" s="7">
+        <v>18825</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H10" s="7">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10795</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M10" s="7">
-        <v>39</v>
-      </c>
-      <c r="N10" s="7">
-        <v>24959</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,49 +5330,49 @@
         <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>11164</v>
+        <v>14164</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" s="7">
+        <v>16</v>
+      </c>
+      <c r="I11" s="7">
+        <v>10795</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M11" s="7">
+        <v>39</v>
+      </c>
+      <c r="N11" s="7">
+        <v>24959</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H11" s="7">
-        <v>10</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7661</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M11" s="7">
-        <v>25</v>
-      </c>
-      <c r="N11" s="7">
-        <v>18825</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,49 +5434,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>12987</v>
+        <v>6139</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4359</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M13" s="7">
+        <v>13</v>
+      </c>
+      <c r="N13" s="7">
+        <v>10497</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9286</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="M13" s="7">
-        <v>33</v>
-      </c>
-      <c r="N13" s="7">
-        <v>22274</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,49 +5485,49 @@
         <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>6139</v>
+        <v>12987</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H14" s="7">
+        <v>14</v>
+      </c>
+      <c r="I14" s="7">
+        <v>9286</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M14" s="7">
+        <v>33</v>
+      </c>
+      <c r="N14" s="7">
+        <v>22274</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4359</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="M14" s="7">
-        <v>13</v>
-      </c>
-      <c r="N14" s="7">
-        <v>10497</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,49 +5589,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>19439</v>
+        <v>6900</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4872</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="M16" s="7">
+        <v>17</v>
+      </c>
+      <c r="N16" s="7">
+        <v>11772</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H16" s="7">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7">
-        <v>11141</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="M16" s="7">
-        <v>42</v>
-      </c>
-      <c r="N16" s="7">
-        <v>30580</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,49 +5640,49 @@
         <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>6900</v>
+        <v>19439</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H17" s="7">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7">
+        <v>11141</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>42</v>
+      </c>
+      <c r="N17" s="7">
+        <v>30580</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="H17" s="7">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4872</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="M17" s="7">
-        <v>17</v>
-      </c>
-      <c r="N17" s="7">
-        <v>11772</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,49 +5744,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D19" s="7">
-        <v>61031</v>
+        <v>28520</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H19" s="7">
+        <v>29</v>
+      </c>
+      <c r="I19" s="7">
+        <v>21044</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="H19" s="7">
-        <v>59</v>
-      </c>
-      <c r="I19" s="7">
-        <v>39047</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>69</v>
+      </c>
+      <c r="N19" s="7">
+        <v>49563</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="M19" s="7">
-        <v>139</v>
-      </c>
-      <c r="N19" s="7">
-        <v>100079</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,49 +5795,49 @@
         <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D20" s="7">
-        <v>28520</v>
+        <v>61031</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H20" s="7">
+        <v>59</v>
+      </c>
+      <c r="I20" s="7">
+        <v>39047</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="H20" s="7">
-        <v>29</v>
-      </c>
-      <c r="I20" s="7">
-        <v>21044</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>139</v>
+      </c>
+      <c r="N20" s="7">
+        <v>100079</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="M20" s="7">
-        <v>69</v>
-      </c>
-      <c r="N20" s="7">
-        <v>49563</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,6 +5889,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP09-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A729CAEB-985F-44C4-9F66-3CCAED66EFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2F5579E-296F-4610-8A25-3D6E802F4F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2815C936-0C82-4E17-A8F1-D6E363585A3C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C299E873-74FB-4ACB-91A5-BBC6696930A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
   <si>
     <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2007 (Tasa respuesta: 9,84%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -89,7 +89,7 @@
     <t>37,37%</t>
   </si>
   <si>
-    <t>87,91%</t>
+    <t>77,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,181 +104,181 @@
     <t>62,63%</t>
   </si>
   <si>
-    <t>12,09%</t>
+    <t>22,51%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
   </si>
   <si>
     <t>26,41%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
   </si>
   <si>
     <t>22,57%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>79,27%</t>
   </si>
   <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>73,59%</t>
   </si>
   <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>77,43%</t>
   </si>
   <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>33,16%</t>
   </si>
   <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>31,19%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>66,84%</t>
   </si>
   <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>72,37%</t>
   </si>
   <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>17,27%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
   </si>
   <si>
     <t>39,77%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
   </si>
   <si>
     <t>24,89%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>82,73%</t>
   </si>
   <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>60,23%</t>
   </si>
   <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>75,11%</t>
   </si>
   <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -287,454 +287,448 @@
     <t>35,95%</t>
   </si>
   <si>
-    <t>21,2%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2012 (Tasa respuesta: 12,67%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2016 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
   </si>
   <si>
     <t>54,81%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
   </si>
   <si>
     <t>45,19%</t>
   </si>
   <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2012 (Tasa respuesta: 12,67%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2015 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
   </si>
   <si>
     <t>47,71%</t>
@@ -743,211 +737,217 @@
     <t>27,08%</t>
   </si>
   <si>
-    <t>67,88%</t>
+    <t>70,81%</t>
   </si>
   <si>
     <t>39,64%</t>
   </si>
   <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
   </si>
   <si>
     <t>39,69%</t>
   </si>
   <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
   </si>
   <si>
     <t>39,67%</t>
   </si>
   <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
   </si>
   <si>
     <t>60,36%</t>
   </si>
   <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
   </si>
   <si>
     <t>60,31%</t>
   </si>
   <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
   </si>
   <si>
     <t>60,33%</t>
   </si>
   <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
   </si>
   <si>
     <t>47,67%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>32,04%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
   </si>
   <si>
     <t>39,88%</t>
   </si>
   <si>
-    <t>59,93%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
   </si>
   <si>
     <t>52,33%</t>
   </si>
   <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
   </si>
   <si>
     <t>67,96%</t>
   </si>
   <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>60,12%</t>
   </si>
   <si>
-    <t>40,07%</t>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>56,39%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>53,44%</t>
   </si>
   <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
   </si>
   <si>
     <t>43,61%</t>
   </si>
   <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
   </si>
   <si>
     <t>50,16%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>46,56%</t>
   </si>
   <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
   </si>
   <si>
     <t>43,47%</t>
   </si>
   <si>
-    <t>52,23%</t>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>56,53%</t>
   </si>
   <si>
-    <t>47,77%</t>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
   </si>
   <si>
     <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2023 (Tasa respuesta: 10,83%)</t>
@@ -965,9 +965,6 @@
     <t>16,02%</t>
   </si>
   <si>
-    <t>62,85%</t>
-  </si>
-  <si>
     <t>74,59%</t>
   </si>
   <si>
@@ -980,277 +977,256 @@
     <t>83,98%</t>
   </si>
   <si>
-    <t>37,15%</t>
-  </si>
-  <si>
     <t>22,64%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
   </si>
   <si>
     <t>39,51%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
   </si>
   <si>
     <t>29,26%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
+    <t>48,22%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
   </si>
   <si>
     <t>70,74%</t>
   </si>
   <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>51,78%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>43,0%</t>
   </si>
   <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
   </si>
   <si>
     <t>57,0%</t>
   </si>
   <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
   </si>
   <si>
     <t>32,1%</t>
   </si>
   <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
   </si>
   <si>
     <t>31,94%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
   </si>
   <si>
     <t>67,9%</t>
   </si>
   <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>68,06%</t>
   </si>
   <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
   </si>
   <si>
     <t>67,97%</t>
   </si>
   <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
+    <t>13,78%</t>
   </si>
   <si>
     <t>30,42%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
   </si>
   <si>
     <t>27,8%</t>
   </si>
   <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
+    <t>86,22%</t>
   </si>
   <si>
     <t>69,58%</t>
   </si>
   <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>72,2%</t>
   </si>
   <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>31,85%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>33,12%</t>
   </si>
   <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>68,15%</t>
   </si>
   <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
   </si>
   <si>
     <t>66,88%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7FD7B7-63A3-4C95-B18D-4129F3BF0EE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747E8982-4735-4EA3-9D68-5D4618E96331}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2725,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C211F72A-4DD8-4DB3-ACCC-1CCB0272EDA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01045F28-A028-4224-A356-446EC2503BC4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2864,7 +2840,7 @@
         <v>896</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -2879,13 +2855,13 @@
         <v>896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,7 +2879,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -2915,7 +2891,7 @@
         <v>1849</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -2930,10 +2906,10 @@
         <v>6532</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>13</v>
@@ -3004,13 +2980,13 @@
         <v>6901</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3019,13 +2995,13 @@
         <v>4725</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3034,13 +3010,13 @@
         <v>11627</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3031,13 @@
         <v>6443</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -3070,13 +3046,13 @@
         <v>6595</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -3085,13 +3061,13 @@
         <v>13038</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3135,13 @@
         <v>8928</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -3174,13 +3150,13 @@
         <v>10088</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3189,13 +3165,13 @@
         <v>19016</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3186,13 @@
         <v>22494</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -3225,13 +3201,13 @@
         <v>17718</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -3240,13 +3216,13 @@
         <v>40212</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3290,13 @@
         <v>10112</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3329,13 +3305,13 @@
         <v>7633</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -3344,13 +3320,13 @@
         <v>17745</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3341,13 @@
         <v>15181</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -3380,13 +3356,13 @@
         <v>12237</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -3395,13 +3371,13 @@
         <v>27419</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3445,13 @@
         <v>8311</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3484,13 +3460,13 @@
         <v>5056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3499,13 +3475,13 @@
         <v>13366</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3496,13 @@
         <v>19366</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -3535,13 +3511,13 @@
         <v>16072</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -3550,13 +3526,13 @@
         <v>35439</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3600,13 @@
         <v>34252</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -3639,13 +3615,13 @@
         <v>28397</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -3654,13 +3630,13 @@
         <v>62649</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3651,13 @@
         <v>68167</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -3690,13 +3666,13 @@
         <v>54472</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M20" s="7">
         <v>176</v>
@@ -3705,13 +3681,13 @@
         <v>122640</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,7 +3764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5085EBB4-70A4-4F07-97BF-2D3677A0184B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715E0236-2D25-4C3F-9519-6A716AEF837A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3805,7 +3781,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3918,7 +3894,7 @@
         <v>119</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3933,7 +3909,7 @@
         <v>119</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3948,7 +3924,7 @@
         <v>119</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3942,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -3981,7 +3957,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -3996,7 +3972,7 @@
         <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -4067,13 +4043,13 @@
         <v>4386</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4082,13 +4058,13 @@
         <v>3254</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -4097,13 +4073,13 @@
         <v>7640</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4094,13 @@
         <v>4289</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4133,13 +4109,13 @@
         <v>2682</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -4148,13 +4124,13 @@
         <v>6972</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4198,13 @@
         <v>7945</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4237,13 +4213,13 @@
         <v>7779</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4252,13 +4228,13 @@
         <v>15723</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4249,13 @@
         <v>12096</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -4288,13 +4264,13 @@
         <v>11817</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -4303,13 +4279,13 @@
         <v>23913</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4353,13 @@
         <v>4323</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4392,13 +4368,13 @@
         <v>2886</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -4407,13 +4383,13 @@
         <v>7209</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4404,13 @@
         <v>4745</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4443,13 +4419,13 @@
         <v>6122</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4458,13 +4434,13 @@
         <v>10868</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +4678,13 @@
         <v>19077</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -4717,10 +4693,10 @@
         <v>42852</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>294</v>
@@ -4753,13 +4729,13 @@
         <v>28046</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -4768,13 +4744,13 @@
         <v>55718</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,7 +4827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAD1AC1-6EDD-48AE-A45B-38A481D603C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA55AA9-8782-4725-8F94-CE0E9D425EA1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5011,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,10 +5002,10 @@
         <v>1867</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
@@ -5044,7 +5020,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -5056,10 +5032,10 @@
         <v>3335</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>13</v>
@@ -5130,13 +5106,13 @@
         <v>3680</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5145,13 +5121,13 @@
         <v>4152</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -5160,13 +5136,13 @@
         <v>7832</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>321</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5157,13 @@
         <v>12575</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5196,13 +5172,13 @@
         <v>6357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -5211,13 +5187,13 @@
         <v>18932</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +5261,13 @@
         <v>11164</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -5300,13 +5276,13 @@
         <v>7661</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>335</v>
+        <v>26</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -5315,13 +5291,13 @@
         <v>18825</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5312,13 @@
         <v>14164</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -5351,13 +5327,13 @@
         <v>10795</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -5366,13 +5342,13 @@
         <v>24959</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5416,13 @@
         <v>6139</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5455,13 +5431,13 @@
         <v>4359</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5470,13 +5446,13 @@
         <v>10497</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5467,13 @@
         <v>12987</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -5506,13 +5482,13 @@
         <v>9286</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -5521,13 +5497,13 @@
         <v>22274</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5571,13 @@
         <v>6900</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5610,13 +5586,13 @@
         <v>4872</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5625,13 +5601,13 @@
         <v>11772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5622,13 @@
         <v>19439</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>378</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -5661,13 +5637,13 @@
         <v>11141</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -5676,13 +5652,13 @@
         <v>30580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5726,13 @@
         <v>28520</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -5765,13 +5741,13 @@
         <v>21044</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
@@ -5780,13 +5756,13 @@
         <v>49563</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5777,13 @@
         <v>61031</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -5816,13 +5792,13 @@
         <v>39047</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
         <v>139</v>
@@ -5831,13 +5807,13 @@
         <v>100079</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2F5579E-296F-4610-8A25-3D6E802F4F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C02DFD-BF1F-406D-A757-DB0D978E656A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C299E873-74FB-4ACB-91A5-BBC6696930A8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8965482E-8340-421D-8FD0-2AB7D6F2E278}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2007 (Tasa respuesta: 9,84%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2007 (Tasa respuesta: 9,84%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1162 +68,1090 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
     <t>33,16%</t>
   </si>
   <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
   </si>
   <si>
     <t>31,19%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>66,84%</t>
   </si>
   <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
   </si>
   <si>
     <t>17,27%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2012 (Tasa respuesta: 12,67%)</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2016 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2012 (Tasa respuesta: 12,67%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2016 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
   </si>
   <si>
     <t>39,64%</t>
   </si>
   <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
   </si>
   <si>
     <t>39,67%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
   </si>
   <si>
     <t>60,36%</t>
   </si>
   <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
   </si>
   <si>
     <t>60,33%</t>
   </si>
   <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
   </si>
   <si>
     <t>47,67%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
   </si>
   <si>
     <t>56,53%</t>
   </si>
   <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2023 (Tasa respuesta: 10,83%)</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2023 (Tasa respuesta: 10,83%)</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>55,19%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>25,71%</t>
   </si>
   <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
   </si>
   <si>
     <t>74,29%</t>
@@ -1638,8 +1566,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747E8982-4735-4EA3-9D68-5D4618E96331}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D76A0DC-CC98-45A1-8F45-76966385AB73}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1756,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>832</v>
+        <v>2860</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1771,85 +1699,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>929</v>
+        <v>3999</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>1761</v>
+        <v>6859</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>1426</v>
+        <v>6905</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>1525</v>
+        <v>13538</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N5" s="7">
-        <v>2951</v>
+        <v>20444</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,153 +1786,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>2258</v>
+        <v>9765</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>2454</v>
+        <v>17537</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>4712</v>
+        <v>27303</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>3167</v>
+        <v>4337</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>1931</v>
+        <v>9403</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>5098</v>
+        <v>13740</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>12112</v>
+        <v>11359</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>5381</v>
+        <v>18956</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N8" s="7">
-        <v>17493</v>
+        <v>30315</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,153 +1941,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7">
-        <v>15279</v>
+        <v>15696</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="I9" s="7">
-        <v>7312</v>
+        <v>28359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="N9" s="7">
-        <v>22591</v>
+        <v>44055</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>9403</v>
+        <v>3130</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>4337</v>
+        <v>2653</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>13740</v>
+        <v>5783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>18956</v>
+        <v>4739</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>11359</v>
+        <v>12713</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N11" s="7">
-        <v>30315</v>
+        <v>17453</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,153 +2096,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>28359</v>
+        <v>7869</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7">
-        <v>15696</v>
+        <v>15366</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="N12" s="7">
-        <v>44055</v>
+        <v>23236</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2653</v>
+        <v>2474</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>3130</v>
+        <v>7986</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>5783</v>
+        <v>10459</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>12713</v>
+        <v>20439</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7">
-        <v>4739</v>
+        <v>14229</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N14" s="7">
-        <v>17453</v>
+        <v>34668</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,153 +2251,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7">
-        <v>15366</v>
+        <v>22913</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I15" s="7">
-        <v>7869</v>
+        <v>22215</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N15" s="7">
-        <v>23236</v>
+        <v>45127</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>7986</v>
+        <v>12800</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>2474</v>
+        <v>24042</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="N16" s="7">
-        <v>10459</v>
+        <v>36842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7">
-        <v>14229</v>
+        <v>43443</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I17" s="7">
-        <v>20439</v>
+        <v>59436</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="N17" s="7">
-        <v>34668</v>
+        <v>102879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,217 +2406,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D18" s="7">
-        <v>22215</v>
+        <v>56243</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="I18" s="7">
-        <v>22913</v>
+        <v>83478</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="N18" s="7">
-        <v>45127</v>
+        <v>139721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>36</v>
-      </c>
-      <c r="D19" s="7">
-        <v>24042</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="7">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7">
-        <v>12800</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" s="7">
-        <v>55</v>
-      </c>
-      <c r="N19" s="7">
-        <v>36842</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="Q19" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7">
-        <v>88</v>
-      </c>
-      <c r="D20" s="7">
-        <v>59436</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="7">
-        <v>64</v>
-      </c>
-      <c r="I20" s="7">
-        <v>43443</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="7">
-        <v>152</v>
-      </c>
-      <c r="N20" s="7">
-        <v>102879</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>124</v>
-      </c>
-      <c r="D21" s="7">
-        <v>83478</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="7">
-        <v>83</v>
-      </c>
-      <c r="I21" s="7">
-        <v>56243</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="7">
-        <v>207</v>
-      </c>
-      <c r="N21" s="7">
-        <v>139721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2701,8 +2473,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01045F28-A028-4224-A356-446EC2503BC4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84F1B97-7135-42A6-B75D-19631D71E254}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2718,7 +2490,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2819,100 +2591,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5621</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>896</v>
+        <v>6901</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>896</v>
+        <v>12522</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>4683</v>
+        <v>8444</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="7">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7">
+        <v>11126</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="7">
+        <v>25</v>
+      </c>
+      <c r="N5" s="7">
+        <v>19570</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1849</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="7">
-        <v>7</v>
-      </c>
-      <c r="N5" s="7">
-        <v>6532</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,63 +2693,63 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>4683</v>
+        <v>14065</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7">
-        <v>2745</v>
+        <v>18027</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="N6" s="7">
-        <v>7428</v>
+        <v>32092</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>6901</v>
+        <v>10088</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>126</v>
@@ -2989,10 +2761,10 @@
         <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>4725</v>
+        <v>8928</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>129</v>
@@ -3004,10 +2776,10 @@
         <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N7" s="7">
-        <v>11627</v>
+        <v>19016</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>132</v>
@@ -3022,13 +2794,13 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>6443</v>
+        <v>17718</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>135</v>
@@ -3037,37 +2809,37 @@
         <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="I8" s="7">
-        <v>6595</v>
+        <v>22494</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N8" s="7">
-        <v>13038</v>
+        <v>40212</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,54 +2848,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7">
-        <v>13344</v>
+        <v>27806</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I9" s="7">
-        <v>11320</v>
+        <v>31422</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="N9" s="7">
-        <v>24665</v>
+        <v>59228</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3132,97 +2904,97 @@
         <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>8928</v>
+        <v>7633</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>10088</v>
+        <v>10112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>19016</v>
+        <v>17745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>22494</v>
+        <v>12237</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7">
-        <v>17718</v>
+        <v>15181</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="N11" s="7">
-        <v>40212</v>
+        <v>27419</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,153 +3003,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7">
-        <v>31422</v>
+        <v>19870</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I12" s="7">
-        <v>27806</v>
+        <v>25293</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="N12" s="7">
-        <v>59228</v>
+        <v>45164</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>10112</v>
+        <v>5056</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>7633</v>
+        <v>8311</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>17745</v>
+        <v>13366</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>15181</v>
+        <v>16072</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>12237</v>
+        <v>19366</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N14" s="7">
-        <v>27419</v>
+        <v>35439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,153 +3158,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7">
-        <v>25293</v>
+        <v>21128</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7">
-        <v>19870</v>
+        <v>27677</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N15" s="7">
-        <v>45164</v>
+        <v>48805</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7">
-        <v>8311</v>
+        <v>28397</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="I16" s="7">
-        <v>5056</v>
+        <v>34252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="N16" s="7">
-        <v>13366</v>
+        <v>62649</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D17" s="7">
-        <v>19366</v>
+        <v>54472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="I17" s="7">
-        <v>16072</v>
+        <v>68167</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="N17" s="7">
-        <v>35439</v>
+        <v>122640</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,217 +3313,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="D18" s="7">
-        <v>27677</v>
+        <v>82869</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="I18" s="7">
-        <v>21128</v>
+        <v>102419</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="N18" s="7">
-        <v>48805</v>
+        <v>185289</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>48</v>
-      </c>
-      <c r="D19" s="7">
-        <v>34252</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="7">
-        <v>42</v>
-      </c>
-      <c r="I19" s="7">
-        <v>28397</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M19" s="7">
-        <v>90</v>
-      </c>
-      <c r="N19" s="7">
-        <v>62649</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7">
-        <v>96</v>
-      </c>
-      <c r="D20" s="7">
-        <v>68167</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="7">
-        <v>80</v>
-      </c>
-      <c r="I20" s="7">
-        <v>54472</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M20" s="7">
-        <v>176</v>
-      </c>
-      <c r="N20" s="7">
-        <v>122640</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>144</v>
-      </c>
-      <c r="D21" s="7">
-        <v>102419</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="7">
-        <v>122</v>
-      </c>
-      <c r="I21" s="7">
-        <v>82869</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="7">
-        <v>266</v>
-      </c>
-      <c r="N21" s="7">
-        <v>185289</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3764,8 +3380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715E0236-2D25-4C3F-9519-6A716AEF837A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A74BB6-891D-4CD9-B3E2-0E0DA42F879E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3781,7 +3397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3882,100 +3498,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3254</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4386</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>7640</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>1034</v>
+        <v>4915</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="7">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5323</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M5" s="7">
+        <v>14</v>
+      </c>
+      <c r="N5" s="7">
+        <v>10238</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2232</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3267</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,63 +3600,63 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>1034</v>
+        <v>8169</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>2232</v>
+        <v>9709</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N6" s="7">
-        <v>3267</v>
+        <v>17878</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>4386</v>
+        <v>7779</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>215</v>
@@ -4052,10 +3668,10 @@
         <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>3254</v>
+        <v>7945</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>218</v>
@@ -4067,10 +3683,10 @@
         <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>7640</v>
+        <v>15723</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>221</v>
@@ -4085,13 +3701,13 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>4289</v>
+        <v>11817</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>224</v>
@@ -4103,10 +3719,10 @@
         <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7">
-        <v>2682</v>
+        <v>12096</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>227</v>
@@ -4118,10 +3734,10 @@
         <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="N8" s="7">
-        <v>6972</v>
+        <v>23913</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>230</v>
@@ -4139,63 +3755,63 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7">
-        <v>8675</v>
+        <v>19596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I9" s="7">
-        <v>5936</v>
+        <v>20041</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="N9" s="7">
-        <v>14612</v>
+        <v>39636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>7945</v>
+        <v>2886</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>233</v>
@@ -4207,10 +3823,10 @@
         <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>7779</v>
+        <v>4323</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>236</v>
@@ -4222,10 +3838,10 @@
         <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>15723</v>
+        <v>7209</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>239</v>
@@ -4240,13 +3856,13 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>12096</v>
+        <v>6122</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>242</v>
@@ -4258,10 +3874,10 @@
         <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>11817</v>
+        <v>4745</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>245</v>
@@ -4273,10 +3889,10 @@
         <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N11" s="7">
-        <v>23913</v>
+        <v>10868</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>248</v>
@@ -4294,63 +3910,63 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>20041</v>
+        <v>9008</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7">
-        <v>19596</v>
+        <v>9068</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N12" s="7">
-        <v>39636</v>
+        <v>18077</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>4323</v>
+        <v>5159</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>251</v>
@@ -4362,10 +3978,10 @@
         <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>2886</v>
+        <v>7121</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>254</v>
@@ -4377,10 +3993,10 @@
         <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>7209</v>
+        <v>12279</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>257</v>
@@ -4395,13 +4011,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>4745</v>
+        <v>5191</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>260</v>
@@ -4413,10 +4029,10 @@
         <v>262</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>6122</v>
+        <v>5508</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>263</v>
@@ -4428,10 +4044,10 @@
         <v>265</v>
       </c>
       <c r="M14" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N14" s="7">
-        <v>10868</v>
+        <v>10699</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>266</v>
@@ -4449,63 +4065,63 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>9068</v>
+        <v>10350</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I15" s="7">
-        <v>9008</v>
+        <v>12629</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N15" s="7">
-        <v>18077</v>
+        <v>22978</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>7121</v>
+        <v>19077</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>269</v>
@@ -4517,10 +4133,10 @@
         <v>271</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>5159</v>
+        <v>23775</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>272</v>
@@ -4532,10 +4148,10 @@
         <v>274</v>
       </c>
       <c r="M16" s="7">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="N16" s="7">
-        <v>12279</v>
+        <v>42852</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>275</v>
@@ -4550,13 +4166,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>5508</v>
+        <v>28046</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>278</v>
@@ -4568,10 +4184,10 @@
         <v>280</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I17" s="7">
-        <v>5191</v>
+        <v>27672</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>281</v>
@@ -4583,10 +4199,10 @@
         <v>283</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="N17" s="7">
-        <v>10699</v>
+        <v>55718</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>284</v>
@@ -4604,217 +4220,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D18" s="7">
-        <v>12629</v>
+        <v>47123</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I18" s="7">
-        <v>10350</v>
+        <v>51447</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="N18" s="7">
-        <v>22978</v>
+        <v>98570</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>34</v>
-      </c>
-      <c r="D19" s="7">
-        <v>23775</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H19" s="7">
-        <v>30</v>
-      </c>
-      <c r="I19" s="7">
-        <v>19077</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M19" s="7">
-        <v>64</v>
-      </c>
-      <c r="N19" s="7">
-        <v>42852</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7">
-        <v>40</v>
-      </c>
-      <c r="D20" s="7">
-        <v>27672</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H20" s="7">
-        <v>42</v>
-      </c>
-      <c r="I20" s="7">
-        <v>28046</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="M20" s="7">
-        <v>82</v>
-      </c>
-      <c r="N20" s="7">
-        <v>55718</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>74</v>
-      </c>
-      <c r="D21" s="7">
-        <v>51447</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="7">
-        <v>72</v>
-      </c>
-      <c r="I21" s="7">
-        <v>47123</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="7">
-        <v>146</v>
-      </c>
-      <c r="N21" s="7">
-        <v>98570</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4827,8 +4287,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA55AA9-8782-4725-8F94-CE0E9D425EA1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2E67A6-5DCA-44CC-A3E4-7F45419CA3D8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4844,7 +4304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4945,100 +4405,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>636</v>
+        <v>4053</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4507</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>636</v>
+        <v>8560</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>1867</v>
+        <v>7953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>1468</v>
+        <v>19424</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N5" s="7">
-        <v>3335</v>
+        <v>27377</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,153 +4507,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>2503</v>
+        <v>12006</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I6" s="7">
-        <v>1468</v>
+        <v>23931</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="N6" s="7">
-        <v>3971</v>
+        <v>35937</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>3680</v>
+        <v>10702</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H7" s="7">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7">
+        <v>11305</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M7" s="7">
+        <v>25</v>
+      </c>
+      <c r="N7" s="7">
+        <v>22007</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4152</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M7" s="7">
-        <v>13</v>
-      </c>
-      <c r="N7" s="7">
-        <v>7832</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>12575</v>
+        <v>10658</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H8" s="7">
+        <v>23</v>
+      </c>
+      <c r="I8" s="7">
+        <v>14630</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M8" s="7">
+        <v>39</v>
+      </c>
+      <c r="N8" s="7">
+        <v>25288</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H8" s="7">
-        <v>10</v>
-      </c>
-      <c r="I8" s="7">
-        <v>6357</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M8" s="7">
-        <v>19</v>
-      </c>
-      <c r="N8" s="7">
-        <v>18932</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,153 +4662,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7">
-        <v>16255</v>
+        <v>21360</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I9" s="7">
-        <v>10509</v>
+        <v>25935</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="N9" s="7">
-        <v>26764</v>
+        <v>47295</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>11164</v>
+        <v>4265</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6484</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M10" s="7">
+        <v>13</v>
+      </c>
+      <c r="N10" s="7">
+        <v>10749</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7661</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M10" s="7">
-        <v>25</v>
-      </c>
-      <c r="N10" s="7">
-        <v>18825</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>14164</v>
+        <v>9478</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H11" s="7">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7">
+        <v>14476</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M11" s="7">
+        <v>33</v>
+      </c>
+      <c r="N11" s="7">
+        <v>23954</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H11" s="7">
-        <v>16</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10795</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="M11" s="7">
-        <v>39</v>
-      </c>
-      <c r="N11" s="7">
-        <v>24959</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,54 +4817,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D12" s="7">
-        <v>25328</v>
+        <v>13743</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>18456</v>
+        <v>20960</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N12" s="7">
-        <v>43784</v>
+        <v>34703</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5413,97 +4873,97 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>6139</v>
+        <v>4882</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7">
+        <v>7304</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M13" s="7">
+        <v>17</v>
+      </c>
+      <c r="N13" s="7">
+        <v>12186</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4359</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="M13" s="7">
-        <v>13</v>
-      </c>
-      <c r="N13" s="7">
-        <v>10497</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>12987</v>
+        <v>10791</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H14" s="7">
+        <v>26</v>
+      </c>
+      <c r="I14" s="7">
+        <v>20900</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="M14" s="7">
+        <v>42</v>
+      </c>
+      <c r="N14" s="7">
+        <v>31691</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="H14" s="7">
-        <v>14</v>
-      </c>
-      <c r="I14" s="7">
-        <v>9286</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="M14" s="7">
-        <v>33</v>
-      </c>
-      <c r="N14" s="7">
-        <v>22274</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,153 +4972,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" s="7">
-        <v>19126</v>
+        <v>15673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I15" s="7">
-        <v>13645</v>
+        <v>28204</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N15" s="7">
-        <v>32771</v>
+        <v>43877</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>6900</v>
+        <v>23901</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H16" s="7">
+        <v>40</v>
+      </c>
+      <c r="I16" s="7">
+        <v>29601</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M16" s="7">
+        <v>69</v>
+      </c>
+      <c r="N16" s="7">
+        <v>53502</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4872</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="M16" s="7">
-        <v>17</v>
-      </c>
-      <c r="N16" s="7">
-        <v>11772</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7">
-        <v>19439</v>
+        <v>38881</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H17" s="7">
+        <v>80</v>
+      </c>
+      <c r="I17" s="7">
+        <v>69428</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M17" s="7">
+        <v>139</v>
+      </c>
+      <c r="N17" s="7">
+        <v>108309</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="H17" s="7">
-        <v>16</v>
-      </c>
-      <c r="I17" s="7">
-        <v>11141</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="M17" s="7">
-        <v>42</v>
-      </c>
-      <c r="N17" s="7">
-        <v>30580</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,217 +5127,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="D18" s="7">
-        <v>26339</v>
+        <v>62782</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7">
-        <v>16013</v>
+        <v>99029</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="N18" s="7">
-        <v>42352</v>
+        <v>161811</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>40</v>
-      </c>
-      <c r="D19" s="7">
-        <v>28520</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H19" s="7">
-        <v>29</v>
-      </c>
-      <c r="I19" s="7">
-        <v>21044</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="M19" s="7">
-        <v>69</v>
-      </c>
-      <c r="N19" s="7">
-        <v>49563</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7">
-        <v>80</v>
-      </c>
-      <c r="D20" s="7">
-        <v>61031</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H20" s="7">
-        <v>59</v>
-      </c>
-      <c r="I20" s="7">
-        <v>39047</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="M20" s="7">
-        <v>139</v>
-      </c>
-      <c r="N20" s="7">
-        <v>100079</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>120</v>
-      </c>
-      <c r="D21" s="7">
-        <v>89551</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="7">
-        <v>88</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60091</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="7">
-        <v>208</v>
-      </c>
-      <c r="N21" s="7">
-        <v>149642</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
